--- a/src/main/resources/SZ300601.xlsx
+++ b/src/main/resources/SZ300601.xlsx
@@ -68,7 +68,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>254.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="2">
@@ -78,7 +78,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2767.0</v>
+        <v>2737.0</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1568.0</v>
+        <v>1538.0</v>
       </c>
     </row>
     <row r="4">
@@ -98,7 +98,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1924.0</v>
+        <v>1894.0</v>
       </c>
     </row>
     <row r="5">
@@ -108,7 +108,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.0</v>
+        <v>1560.0</v>
       </c>
     </row>
     <row r="6">
@@ -118,7 +118,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2235.0</v>
+        <v>2205.0</v>
       </c>
     </row>
     <row r="7">
@@ -128,7 +128,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1970.0</v>
+        <v>1940.0</v>
       </c>
     </row>
     <row r="8">
@@ -138,7 +138,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3572.0</v>
+        <v>3542.0</v>
       </c>
     </row>
     <row r="9">
@@ -148,7 +148,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2805.0</v>
+        <v>2775.0</v>
       </c>
     </row>
     <row r="10">
@@ -158,7 +158,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3583.0</v>
+        <v>3553.0</v>
       </c>
     </row>
     <row r="11">
@@ -168,7 +168,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2372.0</v>
+        <v>2342.0</v>
       </c>
     </row>
     <row r="12">
@@ -178,7 +178,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4522.0</v>
+        <v>4492.0</v>
       </c>
     </row>
     <row r="13">
@@ -188,7 +188,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4027.0</v>
+        <v>3997.0</v>
       </c>
     </row>
     <row r="14">
@@ -198,7 +198,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6638.0</v>
+        <v>6608.0</v>
       </c>
     </row>
     <row r="15">
@@ -208,7 +208,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5577.0</v>
+        <v>5547.0</v>
       </c>
     </row>
     <row r="16">
@@ -218,7 +218,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6577.0</v>
+        <v>6547.0</v>
       </c>
     </row>
     <row r="17">
@@ -228,7 +228,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5375.0</v>
+        <v>5345.0</v>
       </c>
     </row>
     <row r="18">
@@ -238,7 +238,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7475.0</v>
+        <v>7445.0</v>
       </c>
     </row>
     <row r="19">
@@ -248,7 +248,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3605.0</v>
+        <v>3575.0</v>
       </c>
     </row>
     <row r="20">
@@ -258,7 +258,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4954.0</v>
+        <v>4924.0</v>
       </c>
     </row>
     <row r="21">
@@ -268,7 +268,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3842.0</v>
+        <v>3812.0</v>
       </c>
     </row>
     <row r="22">
@@ -278,7 +278,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4535.0</v>
+        <v>4505.0</v>
       </c>
     </row>
     <row r="23">
@@ -288,7 +288,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3245.0</v>
+        <v>3215.0</v>
       </c>
     </row>
     <row r="24">
@@ -298,7 +298,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4405.0</v>
+        <v>4375.0</v>
       </c>
     </row>
     <row r="25">
@@ -308,7 +308,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2760.0</v>
+        <v>2730.0</v>
       </c>
     </row>
     <row r="26">
@@ -318,7 +318,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6110.0</v>
+        <v>6080.0</v>
       </c>
     </row>
     <row r="27">
@@ -328,7 +328,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5040.0</v>
+        <v>5010.0</v>
       </c>
     </row>
     <row r="28">
@@ -338,7 +338,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5541.0</v>
+        <v>5511.0</v>
       </c>
     </row>
     <row r="29">
@@ -348,7 +348,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4608.0</v>
+        <v>4578.0</v>
       </c>
     </row>
     <row r="30">
@@ -358,7 +358,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5222.0</v>
+        <v>5192.0</v>
       </c>
     </row>
     <row r="31">
@@ -368,7 +368,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4417.0</v>
+        <v>4387.0</v>
       </c>
     </row>
     <row r="32">
@@ -378,7 +378,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7795.0</v>
+        <v>7765.0</v>
       </c>
     </row>
     <row r="33">
@@ -388,7 +388,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6888.0</v>
+        <v>6858.0</v>
       </c>
     </row>
     <row r="34">
@@ -398,7 +398,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8588.0</v>
+        <v>8558.0</v>
       </c>
     </row>
     <row r="35">
@@ -408,7 +408,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7932.0</v>
+        <v>7902.0</v>
       </c>
     </row>
     <row r="36">
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9385.0</v>
+        <v>9355.0</v>
       </c>
     </row>
     <row r="37">
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7424.0</v>
+        <v>7394.0</v>
       </c>
     </row>
     <row r="38">
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9150.0</v>
+        <v>9120.0</v>
       </c>
     </row>
     <row r="39">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7960.0</v>
+        <v>7930.0</v>
       </c>
     </row>
     <row r="40">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12282.0</v>
+        <v>12252.0</v>
       </c>
     </row>
     <row r="41">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9770.0</v>
+        <v>9740.0</v>
       </c>
     </row>
     <row r="42">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15257.0</v>
+        <v>15227.0</v>
       </c>
     </row>
     <row r="43">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13020.0</v>
+        <v>12990.0</v>
       </c>
     </row>
     <row r="44">
@@ -498,17 +498,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24969.0</v>
+        <v>24939.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20200814</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19230.0</v>
+        <v>12960.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20201228</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>18520.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>14404.0</v>
       </c>
     </row>
   </sheetData>
